--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1659,6 +1659,755 @@
           <val>
             <numRef>
               <f>'Report'!$B$3:$B$23</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$24</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$24</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$25</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$25</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$27</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$27</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$28</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$28</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$29</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$29</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$30</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$30</f>
             </numRef>
           </val>
         </ser>
@@ -2965,6 +3714,160 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="23" name="Chart 23"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="24" name="Chart 24"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="25" name="Chart 25"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="26" name="Chart 26"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="27" name="Chart 27"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="28" name="Chart 28"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="29" name="Chart 29"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -3275,7 +4178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,6 +4418,76 @@
         <v>100</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>03/10-22:20</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>03/10-22:22</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10-22:24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/10-22:25</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>03/10-22:27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>03/10-22:28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03/10-22:30</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -2515,6 +2515,220 @@
           <val>
             <numRef>
               <f>'Report'!$B$3:$B$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="500"/>
+        <axId val="100"/>
+      </lineChart>
+      <dateAx>
+        <axId val="500"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="50"/>
+          <min val="1"/>
+        </scaling>
+        <axPos val="l"/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+      </dateAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <minorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Avg Uptime</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="500"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$3:$B$32</f>
             </numRef>
           </val>
         </ser>
@@ -3868,6 +4082,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="30" name="Chart 30"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9000000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="31" name="Chart 31"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -4178,7 +4436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4201,7 +4459,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/10-21:33</t>
+          <t>04/10-12:54</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4211,7 +4469,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03/10-21:35</t>
+          <t>04/10-12:55</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4221,7 +4479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/10-21:36</t>
+          <t>04/10-12:57</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4231,7 +4489,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/10-21:38</t>
+          <t>04/10-12:58</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4241,7 +4499,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03/10-21:40</t>
+          <t>04/10-13:00</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4251,7 +4509,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03/10-21:42</t>
+          <t>04/10-13:01</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4261,7 +4519,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/10-21:44</t>
+          <t>04/10-13:03</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4271,17 +4529,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03/10-21:47</t>
+          <t>04/10-13:04</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03/10-21:50</t>
+          <t>04/10-13:06</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4291,7 +4549,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03/10-21:53</t>
+          <t>04/10-13:07</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4301,7 +4559,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03/10-21:55</t>
+          <t>04/10-13:08</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4311,7 +4569,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03/10-21:57</t>
+          <t>04/10-13:10</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4321,7 +4579,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03/10-22:00</t>
+          <t>04/10-13:11</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4331,7 +4589,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03/10-22:02</t>
+          <t>04/10-13:13</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4341,7 +4599,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03/10-22:04</t>
+          <t>04/10-13:14</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4351,7 +4609,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03/10-22:06</t>
+          <t>04/10-13:16</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4361,7 +4619,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03/10-22:08</t>
+          <t>04/10-13:17</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4371,7 +4629,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03/10-22:10</t>
+          <t>04/10-13:19</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4381,7 +4639,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03/10-22:12</t>
+          <t>04/10-13:20</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4391,7 +4649,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03/10-22:14</t>
+          <t>04/10-13:22</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4401,7 +4659,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03/10-22:17</t>
+          <t>04/10-13:23</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4411,7 +4669,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03/10-22:18</t>
+          <t>04/10-13:24</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4421,7 +4679,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03/10-22:20</t>
+          <t>04/10-13:26</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4431,7 +4689,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>03/10-22:22</t>
+          <t>04/10-13:27</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4441,7 +4699,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03/10-22:24</t>
+          <t>04/10-13:29</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4451,7 +4709,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>03/10-22:25</t>
+          <t>04/10-13:30</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4461,7 +4719,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>03/10-22:27</t>
+          <t>04/10-13:32</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4471,7 +4729,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>03/10-22:28</t>
+          <t>04/10-13:33</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4481,10 +4739,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03/10-22:30</t>
+          <t>04/10-13:35</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04/10-13:36</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04/10-13:38</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>100</v>
       </c>
     </row>
